--- a/Master_floor.xlsx
+++ b/Master_floor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Material_type_product" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
